--- a/biology/Microbiologie/Petalotrichidae/Petalotrichidae.xlsx
+++ b/biology/Microbiologie/Petalotrichidae/Petalotrichidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Petalotrichidae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Petalotricha, dérivé du grec πέταλον / pétalone petalo-, « feuille de plante » et τριχ / trich, « en trois parties ; poil », littéralement « feuille en trois parties ».
 Le genre Parapetalotricha, de para, « à côté de », se décline donc à partir du Petalotricha.
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Petalotricha montre une lorica (loge) en forme de sac ou conique ; avec un plateau oral étalé et un col bas évasé ; la marge orale est entière ou dentelée ; le col est divisé par une constriction nucale et un rebord nucal à l'intérieur de la partie principale ; le bol est globuleux ; l'extrémité aborale est arrondie, conique ou avec une légère pointe ; la paroi est généralement monocouche, avec deux types de fenêtres, dont les suborales oblongues forment une seule rangée et les subnucales sphériques ou elliptiques sont éparpillées[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Petalotricha montre une lorica (loge) en forme de sac ou conique ; avec un plateau oral étalé et un col bas évasé ; la marge orale est entière ou dentelée ; le col est divisé par une constriction nucale et un rebord nucal à l'intérieur de la partie principale ; le bol est globuleux ; l'extrémité aborale est arrondie, conique ou avec une légère pointe ; la paroi est généralement monocouche, avec deux types de fenêtres, dont les suborales oblongues forment une seule rangée et les subnucales sphériques ou elliptiques sont éparpillées.
 Le genre Parapetalotricha diffère de Petalotricha par sa lorica qui est munie d'un double collier, un collier intérieur et un collier extérieur. L'espèce anciennement baptisée Petalotricha entzi Kofoid, ayant un collier intérieur, appartient donc au nouveau genre Parapetalotricha.
-Ce dernier montre une lorica hyaline, se composant outre d'un collier double, mais aussi d'une cuvette conique. Le col extérieur est en forme d'entonnoir bas, tandis que l'intérieur est plus court et droit. Le bol se rétrécit progressivement vers l'extrémité distale. Toute la surface est lisse, sans stries ni fenestelles[2].
+Ce dernier montre une lorica hyaline, se composant outre d'un collier double, mais aussi d'une cuvette conique. Le col extérieur est en forme d'entonnoir bas, tandis que l'intérieur est plus court et droit. Le bol se rétrécit progressivement vers l'extrémité distale. Toute la surface est lisse, sans stries ni fenestelles.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Parapetalotricha a été découvert dans antarctique, près de la station Syowa[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Parapetalotricha a été découvert dans antarctique, près de la station Syowa.
 </t>
         </is>
       </c>
@@ -607,15 +625,17 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 octobre 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 octobre 2022) :
 Parapetalotricha Hada, 1970
 Petalotricha Kent, 1881
-Selon GBIF       (3 octobre 2022)[4] :
+Selon GBIF       (3 octobre 2022) :
 Parapetalotricha Hada, 1970
 Parapetalotricha meridiana Hada, 1970
-Selon The Taxonomicon  (3 octobre 2022)[5] :
+Selon The Taxonomicon  (3 octobre 2022) :
 Petalotricha Kofoid &amp; Campbell, 1929</t>
         </is>
       </c>
@@ -644,9 +664,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Petalotrichidae Petalotrichidae Kofoid &amp; Campbell, 1929[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Petalotrichidae Petalotrichidae Kofoid &amp; Campbell, 1929.
 </t>
         </is>
       </c>
@@ -675,7 +697,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en)[PDF] Y. Hada. « The Protozoan Plankton of Antarctic and the Subantarctic Seas ». Jare scientific reports, Hiroshima, Série E, n. 31, p. 1-51 (lire en ligne).</t>
         </is>
